--- a/data/trans_orig/CLASESOCIAL_MasIngresos_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_MasIngresos_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{117E941B-6A8E-4A84-9F3C-A210643AF04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17E46B39-7065-4116-9669-F4C806995322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC09EE33-D4D6-4DB4-A99B-F81D99E6CB32}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A7E55DD8-C27E-44E2-AB9C-7FE6EBA571E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
   <si>
     <t>Clase social manual de la persona con más ingresos del hogar (clases de I a V, SEE) en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>2,35%</t>
+    <t>2,22%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
   </si>
   <si>
     <t>No ha trabajado</t>
@@ -104,28 +104,28 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,25 +134,28 @@
     <t>18,72%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
   </si>
   <si>
     <t>19,14%</t>
   </si>
   <si>
-    <t>20,93%</t>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
   </si>
   <si>
     <t>No</t>
@@ -161,28 +164,28 @@
     <t>79,45%</t>
   </si>
   <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
   </si>
   <si>
     <t>69,18%</t>
   </si>
   <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
   </si>
   <si>
     <t>73,22%</t>
   </si>
   <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,259 +197,265 @@
     <t>1,23%</t>
   </si>
   <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>1,57%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>2,26%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
   <si>
     <t>48,23%</t>
@@ -455,52 +464,52 @@
     <t>46,09%</t>
   </si>
   <si>
-    <t>51,17%</t>
+    <t>50,95%</t>
   </si>
   <si>
     <t>41,35%</t>
   </si>
   <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
   </si>
   <si>
     <t>44,59%</t>
   </si>
   <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
   </si>
   <si>
     <t>49,01%</t>
   </si>
   <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
   </si>
   <si>
     <t>52,12%</t>
   </si>
   <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
   </si>
   <si>
     <t>50,66%</t>
   </si>
   <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -915,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3672759-FDC3-4335-A3B8-B0F439253C01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973E9145-B289-4CC8-9CF8-E0DB05184DCA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1174,16 +1183,16 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>549</v>
@@ -1192,13 +1201,13 @@
         <v>430340</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>1009</v>
@@ -1207,13 +1216,13 @@
         <v>578305</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>1558</v>
@@ -1222,13 +1231,13 @@
         <v>1008645</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1243,13 +1252,13 @@
         <v>541634</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>1427</v>
@@ -1258,13 +1267,13 @@
         <v>835953</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>2118</v>
@@ -1273,18 +1282,18 @@
         <v>1377586</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1296,13 +1305,13 @@
         <v>26547</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>76</v>
@@ -1311,13 +1320,13 @@
         <v>55160</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>99</v>
@@ -1326,13 +1335,13 @@
         <v>81708</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1347,13 +1356,13 @@
         <v>27639</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>84</v>
@@ -1362,13 +1371,13 @@
         <v>67148</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -1377,13 +1386,13 @@
         <v>94787</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1398,28 +1407,28 @@
         <v>956564</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>985</v>
       </c>
       <c r="I11" s="7">
-        <v>824781</v>
+        <v>824782</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>1851</v>
@@ -1428,19 +1437,19 @@
         <v>1781346</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>1080</v>
@@ -1449,13 +1458,13 @@
         <v>1151272</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>1776</v>
@@ -1464,13 +1473,13 @@
         <v>1302431</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>2856</v>
@@ -1479,13 +1488,13 @@
         <v>2453703</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1500,28 +1509,28 @@
         <v>2162022</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>4913</v>
@@ -1530,18 +1539,18 @@
         <v>4411543</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1553,13 +1562,13 @@
         <v>23852</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -1568,13 +1577,13 @@
         <v>20220</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -1583,13 +1592,13 @@
         <v>44072</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1604,13 +1613,13 @@
         <v>5218</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
@@ -1619,13 +1628,13 @@
         <v>10125</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>20</v>
@@ -1634,13 +1643,13 @@
         <v>15343</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,13 +1664,13 @@
         <v>570770</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>810</v>
@@ -1670,13 +1679,13 @@
         <v>584012</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>1382</v>
@@ -1685,19 +1694,19 @@
         <v>1154783</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>76</v>
@@ -1706,13 +1715,13 @@
         <v>73200</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>147</v>
@@ -1721,13 +1730,13 @@
         <v>99529</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>223</v>
@@ -1736,13 +1745,13 @@
         <v>172729</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,13 +1766,13 @@
         <v>673039</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>1004</v>
@@ -1772,13 +1781,13 @@
         <v>713886</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>1685</v>
@@ -1787,13 +1796,13 @@
         <v>1386926</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,13 +1819,13 @@
         <v>55619</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>143</v>
@@ -1825,13 +1834,13 @@
         <v>96206</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>198</v>
@@ -1840,13 +1849,13 @@
         <v>151825</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,13 +1870,13 @@
         <v>37558</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>217</v>
@@ -1876,13 +1885,13 @@
         <v>151750</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>251</v>
@@ -1891,13 +1900,13 @@
         <v>189308</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1921,13 @@
         <v>1628706</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>2060</v>
@@ -1927,34 +1936,34 @@
         <v>1571139</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>3630</v>
       </c>
       <c r="N21" s="7">
-        <v>3199846</v>
+        <v>3199845</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>1705</v>
@@ -1963,13 +1972,13 @@
         <v>1654811</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>2932</v>
@@ -1978,28 +1987,28 @@
         <v>1980265</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>4637</v>
       </c>
       <c r="N22" s="7">
-        <v>3635077</v>
+        <v>3635076</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,16 +2020,16 @@
         <v>3364</v>
       </c>
       <c r="D23" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>5352</v>
@@ -2029,33 +2038,33 @@
         <v>3799360</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>8716</v>
       </c>
       <c r="N23" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/CLASESOCIAL_MasIngresos_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_MasIngresos_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17E46B39-7065-4116-9669-F4C806995322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF8DD807-1FF0-4860-A8B2-E41086A8794B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A7E55DD8-C27E-44E2-AB9C-7FE6EBA571E0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B5DB2AF5-2655-4D9A-8E79-8BE848B7B6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -924,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973E9145-B289-4CC8-9CF8-E0DB05184DCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10641691-6D75-423A-ADF9-158A288E9FA6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
